--- a/Gestión/Plantilla Scrum daily meeting.xlsx
+++ b/Gestión/Plantilla Scrum daily meeting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\DAW2\M12\PROYECYO RESTAURANTE\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74CD18E-CBFE-4A85-BD1F-B48128EDC5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE47F8-938F-41A0-B41F-0DA8B0A3D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Integrante</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Diseñar el layout general de las salas.</t>
+  </si>
+  <si>
+    <t>con retraso</t>
+  </si>
+  <si>
+    <t>Cambiar base de datos, unificar codigo y depurar errores.</t>
+  </si>
+  <si>
+    <t>Unificar codigo y depurar errores. Ayudar a dibujar las pantallas de las mesas.</t>
+  </si>
+  <si>
+    <t>Seguir con las pantallas.</t>
+  </si>
+  <si>
+    <t>Depurar todos los fallos posibles.</t>
   </si>
 </sst>
 </file>
@@ -276,6 +291,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -283,54 +346,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -338,23 +353,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -410,6 +408,23 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE7F9EF"/>
@@ -453,7 +468,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:G31" headerRowDxfId="0" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:G31" headerRowDxfId="7" headerRowBorderDxfId="6">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Integrante"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Día"/>
@@ -671,7 +686,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -679,31 +694,31 @@
     <col min="1" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="4" max="4" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27" thickBot="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1"/>
@@ -727,26 +742,26 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="49.8" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:27" ht="52.8">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>45602</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="6"/>
@@ -770,26 +785,26 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="15.6" customHeight="1">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:27" ht="26.4">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>45602</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="6"/>
@@ -813,26 +828,26 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" ht="15.6" customHeight="1">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:27" ht="26.4">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>45602</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="6"/>
@@ -856,26 +871,26 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" ht="15.6" customHeight="1" thickBot="1">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:27" ht="27" thickBot="1">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="19">
         <v>45602</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="6"/>
@@ -900,13 +915,27 @@
       <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:27" ht="13.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12">
+        <v>45603</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -928,14 +957,28 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+    <row r="7" spans="1:27" ht="39.6">
+      <c r="A7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="23">
+        <v>45603</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -957,14 +1000,28 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+    <row r="8" spans="1:27" ht="39.6">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23">
+        <v>45603</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -986,14 +1043,28 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
+    <row r="9" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19">
+        <v>45603</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1015,7 +1086,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="13.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1044,7 +1115,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="13.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1073,7 +1144,7 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="13.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1102,7 +1173,7 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="13.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1131,7 +1202,7 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="13.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1160,7 +1231,7 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="13.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1189,7 +1260,7 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="13.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1218,7 +1289,7 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="13.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1247,7 +1318,7 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="13.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1276,7 +1347,7 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="13.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1305,7 +1376,7 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="13.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1334,7 +1405,7 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="13.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1363,7 +1434,7 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="13.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1392,7 +1463,7 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="13.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1421,7 +1492,7 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="13.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1450,7 +1521,7 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="13.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -1479,7 +1550,7 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" ht="13.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -1508,7 +1579,7 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" ht="13.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -1537,7 +1608,7 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" ht="13.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
@@ -1546,7 +1617,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" ht="13.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -1555,7 +1626,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" ht="13.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -1564,7 +1635,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" ht="13.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -1575,26 +1646,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C31">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"nok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="con retraso">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="con retraso">
       <formula>NOT(ISERROR(SEARCH(("con retraso"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="correcta">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="correcta">
       <formula>NOT(ISERROR(SEARCH(("correcta"),(F2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="avanzada">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="avanzada">
       <formula>NOT(ISERROR(SEARCH(("avanzada"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(G31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gestión/Plantilla Scrum daily meeting.xlsx
+++ b/Gestión/Plantilla Scrum daily meeting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\DAW2\M12\PROYECYO RESTAURANTE\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AE47F8-938F-41A0-B41F-0DA8B0A3D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBD80E1-30BB-483E-8F48-20972460EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,15 +337,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -961,19 +952,19 @@
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="3">
         <v>45603</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="17" t="s">
@@ -1004,19 +995,19 @@
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="3">
         <v>45603</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="17" t="s">

--- a/Gestión/Plantilla Scrum daily meeting.xlsx
+++ b/Gestión/Plantilla Scrum daily meeting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\DAW2\M12\PROYECYO RESTAURANTE\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBD80E1-30BB-483E-8F48-20972460EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF313C21-6712-4D31-9780-8FE4ADC3CE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="26">
   <si>
     <t>Integrante</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Depurar todos los fallos posibles.</t>
+  </si>
+  <si>
+    <t>Unificar codigo y depurar errores. Ayudar a dibujar las pantallas de las mesas. Historial de ocupaciones.</t>
   </si>
 </sst>
 </file>
@@ -676,8 +679,8 @@
   </sheetPr>
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1077,14 +1080,28 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="13.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+    <row r="10" spans="1:27" ht="39.6">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>45604</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1106,14 +1123,28 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="13.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
+    <row r="11" spans="1:27" ht="39.6">
+      <c r="A11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45604</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1135,14 +1166,28 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="13.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+    <row r="12" spans="1:27" ht="39.6">
+      <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45604</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1164,14 +1209,28 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27" ht="13.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+    <row r="13" spans="1:27" ht="53.4" thickBot="1">
+      <c r="A13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="19">
+        <v>45604</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1193,14 +1252,28 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="13.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+    <row r="14" spans="1:27" ht="39.6">
+      <c r="A14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12">
+        <v>45607</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1222,14 +1295,28 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="13.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+    <row r="15" spans="1:27" ht="39.6">
+      <c r="A15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45607</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1251,14 +1338,28 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="13.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+    <row r="16" spans="1:27" ht="39.6">
+      <c r="A16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45607</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1280,14 +1381,28 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
     </row>
-    <row r="17" spans="1:27" ht="13.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
+    <row r="17" spans="1:27" ht="53.4" thickBot="1">
+      <c r="A17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19">
+        <v>45607</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>

--- a/Gestión/Plantilla Scrum daily meeting.xlsx
+++ b/Gestión/Plantilla Scrum daily meeting.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\DAW2\M12\PROYECYO RESTAURANTE\Gestión\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C374C4C4-05EA-4211-9DF2-DDD159027E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Scrum daily meeting - Grupo XX"/>
+    <sheet name="Scrum daily meeting - Grupo XX" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -102,9 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +120,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Comfortaa"/>
       <family val="2"/>
     </font>
@@ -147,11 +152,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF26a69a"/>
+        <fgColor rgb="FF26A69A"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -164,7 +169,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -176,10 +181,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -191,7 +196,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -291,120 +296,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G31" displayName="Table_1" name="Table_1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:G31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn name="Integrante" id="1"/>
-    <tableColumn name="Día" id="2"/>
-    <tableColumn name="Asistencia" id="3"/>
-    <tableColumn name="Tarea ayer_x000a_¿Qué he hecho?" id="4"/>
-    <tableColumn name="Tarea hoy_x000a_¿Qué voy hacer hoy?" id="5"/>
-    <tableColumn name="Desviación respespecto a la planificación" id="6"/>
-    <tableColumn name="¿Qué impedimentos tengo o voy a tener que me impidan continuar?" id="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Integrante"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Día"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Asistencia"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tarea ayer_x000a_¿Qué he hecho?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tarea hoy_x000a_¿Qué voy hacer hoy?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Desviación respespecto a la planificación"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="¿Qué impedimentos tengo o voy a tener que me impidan continuar?"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="1" showFirstColumn="1"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -413,10 +534,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -454,71 +575,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,7 +667,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -569,11 +690,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -582,13 +703,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -598,7 +719,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -607,7 +728,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -616,7 +737,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -624,10 +745,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -692,46 +813,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" style="24" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="25" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="26" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="66.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="26" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="24" width="39.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +879,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -817,7 +922,7 @@
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
@@ -860,7 +965,7 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="28.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
@@ -903,7 +1008,7 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="28.5" customFormat="1" s="1">
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
@@ -946,7 +1051,7 @@
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="6" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -989,7 +1094,7 @@
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="7" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1137,7 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="8" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1180,7 @@
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="9" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
       <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
@@ -1118,7 +1223,7 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="10" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1266,7 @@
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="11" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1309,7 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="12" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1247,7 +1352,7 @@
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="13" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
       <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
@@ -1290,7 +1395,7 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="14" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1438,7 @@
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="15" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
@@ -1376,7 +1481,7 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row r="16" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1419,26 +1524,26 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="39.75" customFormat="1" s="1">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="14">
         <v>45607</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="12"/>
@@ -1462,26 +1567,26 @@
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="39.75" customFormat="1" s="1">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="14">
-        <v>45637</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="28">
+        <v>45608</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="31" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="12"/>
@@ -1505,12 +1610,12 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="39.75" customFormat="1" s="1">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A19" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="14">
-        <v>45637</v>
+        <v>45608</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>8</v>
@@ -1524,7 +1629,7 @@
       <c r="F19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="12"/>
@@ -1548,12 +1653,12 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="39.75" customFormat="1" s="1">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="14">
-        <v>45637</v>
+        <v>45608</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>8</v>
@@ -1567,7 +1672,7 @@
       <c r="F20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="12"/>
@@ -1591,26 +1696,26 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="39.75" customFormat="1" s="1">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:27" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A21" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="14">
-        <v>45637</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="35">
+        <v>45608</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="38" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="12"/>
@@ -1634,7 +1739,7 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="22" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
@@ -1663,7 +1768,7 @@
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="23" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1692,7 +1797,7 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="24" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -1721,7 +1826,7 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="25" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -1750,7 +1855,7 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="26" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -1779,7 +1884,7 @@
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="27" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -1808,7 +1913,7 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="28" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -1837,7 +1942,7 @@
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="29" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
@@ -1866,7 +1971,7 @@
       <c r="Z29" s="23"/>
       <c r="AA29" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="30" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
@@ -1895,7 +2000,7 @@
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="31" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>

--- a/Gestión/Plantilla Scrum daily meeting.xlsx
+++ b/Gestión/Plantilla Scrum daily meeting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\DAW2\M12\PROYECYO RESTAURANTE\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C374C4C4-05EA-4211-9DF2-DDD159027E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0FD293-3C80-4749-8FBA-236632B54D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
   <si>
     <t>Integrante</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Css de mesas y salas.</t>
+  </si>
+  <si>
+    <t>avanzado</t>
   </si>
 </sst>
 </file>
@@ -820,8 +823,8 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1584,7 +1587,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>23</v>
@@ -1627,7 +1630,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>23</v>
@@ -1670,7 +1673,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>23</v>
@@ -1713,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>23</v>

--- a/Gestión/Plantilla Scrum daily meeting.xlsx
+++ b/Gestión/Plantilla Scrum daily meeting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\DAW2\M12\PROYECYO RESTAURANTE\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0FD293-3C80-4749-8FBA-236632B54D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD9D2A8-FA19-410A-9A7C-CA21DD8CB028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="29">
   <si>
     <t>Integrante</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>avanzado</t>
+  </si>
+  <si>
+    <t>finalizado</t>
   </si>
 </sst>
 </file>
@@ -823,8 +826,8 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1742,14 +1745,28 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
     </row>
-    <row r="22" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+    <row r="22" spans="1:27" s="1" customFormat="1">
+      <c r="A22" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="28">
+        <v>45609</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>23</v>
+      </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -1771,14 +1788,28 @@
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
     </row>
-    <row r="23" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
+    <row r="23" spans="1:27" s="1" customFormat="1">
+      <c r="A23" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="14">
+        <v>45609</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -1800,14 +1831,28 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
     </row>
-    <row r="24" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+    <row r="24" spans="1:27" s="1" customFormat="1">
+      <c r="A24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="14">
+        <v>45609</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -1829,14 +1874,28 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
     </row>
-    <row r="25" spans="1:27" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+    <row r="25" spans="1:27" s="1" customFormat="1" ht="27.6" thickBot="1">
+      <c r="A25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="35">
+        <v>45609</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
